--- a/src/main/insert Sozialversicherungsdaten/11 Unfallversicherungsbeitrag.xlsx
+++ b/src/main/insert Sozialversicherungsdaten/11 Unfallversicherungsbeitrag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\insert Sozialversicherungsdaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F91521-1CD1-4D02-938D-F13DA7F339DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F875F6-1057-45BA-8A15-99374F08D03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="1875" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35145" yWindow="1740" windowWidth="17280" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,31 +36,31 @@
     <t>Berufsgenossenschaft</t>
   </si>
   <si>
-    <t>Berufsgenossenschaft Energie Textil Elektro Medienerzeugnisse</t>
-  </si>
-  <si>
-    <t>BG ETEM</t>
-  </si>
-  <si>
     <t>Gesellschaft</t>
   </si>
   <si>
-    <t>Bundesdruckerei GmbH</t>
-  </si>
-  <si>
     <t>Berufsgenossenschaftskuerzel</t>
   </si>
   <si>
     <t>Gesellschaftskuerzel</t>
   </si>
   <si>
-    <t>BDr GmbH</t>
-  </si>
-  <si>
     <t>Jahresbeitrag Unfallversicherung</t>
   </si>
   <si>
     <t>Jahr</t>
+  </si>
+  <si>
+    <t>Beispielfirma GmbH</t>
+  </si>
+  <si>
+    <t>Bf GmbH</t>
+  </si>
+  <si>
+    <t>Berufsgenossenschaft Nahrungsmittel</t>
+  </si>
+  <si>
+    <t>BGN</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,15 +412,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -431,20 +431,20 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>6543123.8899999997</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>2023</v>

--- a/src/main/insert Sozialversicherungsdaten/11 Unfallversicherungsbeitrag.xlsx
+++ b/src/main/insert Sozialversicherungsdaten/11 Unfallversicherungsbeitrag.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\insert Sozialversicherungsdaten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_unfallversicherungsbeitrag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F875F6-1057-45BA-8A15-99374F08D03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FDF452-4FCA-4DB3-9B2F-DEA952E210B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35145" yWindow="1740" windowWidth="17280" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="1500" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
